--- a/src/assets/edificios_default/edificios.xlsx
+++ b/src/assets/edificios_default/edificios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t xml:space="preserve">Nombre del Edificio</t>
   </si>
@@ -49,10 +49,16 @@
     <t xml:space="preserve">Anasagasti 1</t>
   </si>
   <si>
-    <t xml:space="preserve">"9:00-18:00" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"12:00-21:00" </t>
+    <t xml:space="preserve">9:00-18:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-21:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-21:00</t>
   </si>
   <si>
     <t xml:space="preserve">CERRADO</t>
@@ -61,7 +67,7 @@
     <t xml:space="preserve">Anasagasti 2</t>
   </si>
   <si>
-    <t xml:space="preserve">"9:00-12:00" </t>
+    <t xml:space="preserve">9:00-12:00</t>
   </si>
   <si>
     <t xml:space="preserve">Mitre 1</t>
@@ -178,7 +184,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,50 +229,50 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -275,19 +281,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
